--- a/registros_excel/2024-01-29.xlsx
+++ b/registros_excel/2024-01-29.xlsx
@@ -1,35 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas2024\Documents\Sistema-Control-de-acceso-Maestri-Ontrack\registros_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38526EA3-70EB-414C-B477-FA5D7CFA4CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Actual" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Actual" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>Adm</t>
+  </si>
+  <si>
+    <t>Operaciones</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>15961357</t>
+  </si>
+  <si>
+    <t>Mauricio Sanchez</t>
+  </si>
+  <si>
+    <t>Administrativa</t>
+  </si>
+  <si>
+    <t>1054398414</t>
+  </si>
+  <si>
+    <t>Julian Largo</t>
+  </si>
+  <si>
+    <t>Identificacion</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Hora Escaneo</t>
+  </si>
+  <si>
+    <t>Hora Entrada</t>
+  </si>
+  <si>
+    <t>Hora Salida</t>
+  </si>
+  <si>
+    <t>10:17:51</t>
+  </si>
+  <si>
+    <t>10:17:52</t>
+  </si>
+  <si>
+    <t>10:17:55</t>
+  </si>
+  <si>
+    <t>10:18:52</t>
+  </si>
+  <si>
+    <t>10:18:53</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,80 +120,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,72 +422,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Identificacion</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Hora Escaneo</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Hora Entrada</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Hora Salida</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/registros_excel/2024-01-29.xlsx
+++ b/registros_excel/2024-01-29.xlsx
@@ -1,107 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sistemas2024\Documents\Sistema-Control-de-acceso-Maestri-Ontrack\registros_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38526EA3-70EB-414C-B477-FA5D7CFA4CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Actual" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Actual" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>Adm</t>
-  </si>
-  <si>
-    <t>Operaciones</t>
-  </si>
-  <si>
-    <t>2024-01-29</t>
-  </si>
-  <si>
-    <t>15961357</t>
-  </si>
-  <si>
-    <t>Mauricio Sanchez</t>
-  </si>
-  <si>
-    <t>Administrativa</t>
-  </si>
-  <si>
-    <t>1054398414</t>
-  </si>
-  <si>
-    <t>Julian Largo</t>
-  </si>
-  <si>
-    <t>Identificacion</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Hora Escaneo</t>
-  </si>
-  <si>
-    <t>Hora Entrada</t>
-  </si>
-  <si>
-    <t>Hora Salida</t>
-  </si>
-  <si>
-    <t>10:17:51</t>
-  </si>
-  <si>
-    <t>10:17:52</t>
-  </si>
-  <si>
-    <t>10:17:55</t>
-  </si>
-  <si>
-    <t>10:18:52</t>
-  </si>
-  <si>
-    <t>10:18:53</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -422,163 +409,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Identificacion</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Hora Escaneo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Hora Entrada</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Hora Salida</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Adm</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10:54:4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10:54:04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10:54:04</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15961357</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mauricio Sanchez</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:54:6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10:54:06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10:54:06</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1054398414</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Julian Largo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10:54:8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10:54:08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10:54:08</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/registros_excel/2024-01-29.xlsx
+++ b/registros_excel/2024-01-29.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,6 +588,191 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>101546</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>11:9:21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11:09:22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11:09:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>101546</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11:13:37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11:09:22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>11:13:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13:6:27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10:54:04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>13:06:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15961357</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mauricio Sanchez</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13:6:30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10:54:06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>13:06:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1054398414</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Julian Largo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13:6:31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10:54:08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>13:06:31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/registros_excel/2024-01-29.xlsx
+++ b/registros_excel/2024-01-29.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +773,117 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14:22:24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10:54:04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>14:22:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>15961357</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mauricio Sanchez</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14:22:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10:54:06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>14:22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1054398414</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Julian Largo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Administrativa</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14:22:36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10:54:08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>14:22:36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
